--- a/lookup_table_LU.xlsx
+++ b/lookup_table_LU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="23250" windowHeight="13110"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="23250" windowHeight="13110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="global_land_use" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="938">
   <si>
     <t>grazed</t>
   </si>
@@ -3170,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3969,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C918"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,91 +4495,100 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -8618,77 +8627,77 @@
         <v>918</v>
       </c>
     </row>
-    <row r="904" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="905" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="906" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="907" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="908" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="909" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="910" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="911" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="912" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="913" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="914" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="915" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="916" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="917" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="918" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>436</v>
       </c>

--- a/lookup_table_LU.xlsx
+++ b/lookup_table_LU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="23250" windowHeight="13110" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="23250" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="global_land_use" sheetId="1" r:id="rId1"/>
@@ -3170,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3969,7 +3969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C918"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
